--- a/Output1.xlsx
+++ b/Output1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusla\Desktop\hw_kmpr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusla\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74FD96B-EA64-4A05-90CD-55945C346840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E112DB-7D40-41B3-AB1A-DC6D6BD5D670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection sqref="A1:H140"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="H1">
-        <f xml:space="preserve"> 0.00001 * F1 + 7 *B1+4*C1+D1+0.5*E1</f>
+        <f t="shared" ref="H1:H32" si="0" xml:space="preserve"> 0.00001 * F1 + 7 *B1+4*C1+D1+0.5*E1</f>
         <v>7.8719999999999999</v>
       </c>
     </row>
@@ -793,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <f xml:space="preserve"> 0.00001 * F2 + 7 *B2+4*C2+D2+0.5*E2</f>
+        <f t="shared" si="0"/>
         <v>7.8719999999999999</v>
       </c>
     </row>
@@ -820,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <f xml:space="preserve"> 0.00001 * F3 + 7 *B3+4*C3+D3+0.5*E3</f>
+        <f t="shared" si="0"/>
         <v>7.8719999999999999</v>
       </c>
     </row>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <f xml:space="preserve"> 0.00001 * F4 + 7 *B4+4*C4+D4+0.5*E4</f>
+        <f t="shared" si="0"/>
         <v>7.8719999999999999</v>
       </c>
     </row>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <f xml:space="preserve"> 0.00001 * F5 + 7 *B5+4*C5+D5+0.5*E5</f>
+        <f t="shared" si="0"/>
         <v>8.3719999999999999</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <f xml:space="preserve"> 0.00001 * F6 + 7 *B6+4*C6+D6+0.5*E6</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <f xml:space="preserve"> 0.00001 * F7 + 7 *B7+4*C7+D7+0.5*E7</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <f xml:space="preserve"> 0.00001 * F8 + 7 *B8+4*C8+D8+0.5*E8</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <f xml:space="preserve"> 0.00001 * F9 + 7 *B9+4*C9+D9+0.5*E9</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <f xml:space="preserve"> 0.00001 * F10 + 7 *B10+4*C10+D10+0.5*E10</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <f xml:space="preserve"> 0.00001 * F11 + 7 *B11+4*C11+D11+0.5*E11</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <f xml:space="preserve"> 0.00001 * F12 + 7 *B12+4*C12+D12+0.5*E12</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <f xml:space="preserve"> 0.00001 * F13 + 7 *B13+4*C13+D13+0.5*E13</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <f xml:space="preserve"> 0.00001 * F14 + 7 *B14+4*C14+D14+0.5*E14</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <f xml:space="preserve"> 0.00001 * F15 + 7 *B15+4*C15+D15+0.5*E15</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <f xml:space="preserve"> 0.00001 * F16 + 7 *B16+4*C16+D16+0.5*E16</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <f xml:space="preserve"> 0.00001 * F17 + 7 *B17+4*C17+D17+0.5*E17</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <f xml:space="preserve"> 0.00001 * F18 + 7 *B18+4*C18+D18+0.5*E18</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <f xml:space="preserve"> 0.00001 * F19 + 7 *B19+4*C19+D19+0.5*E19</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <f xml:space="preserve"> 0.00001 * F20 + 7 *B20+4*C20+D20+0.5*E20</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <f xml:space="preserve"> 0.00001 * F21 + 7 *B21+4*C21+D21+0.5*E21</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <f xml:space="preserve"> 0.00001 * F22 + 7 *B22+4*C22+D22+0.5*E22</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <f xml:space="preserve"> 0.00001 * F23 + 7 *B23+4*C23+D23+0.5*E23</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <f xml:space="preserve"> 0.00001 * F24 + 7 *B24+4*C24+D24+0.5*E24</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <f xml:space="preserve"> 0.00001 * F25 + 7 *B25+4*C25+D25+0.5*E25</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <f xml:space="preserve"> 0.00001 * F26 + 7 *B26+4*C26+D26+0.5*E26</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <f xml:space="preserve"> 0.00001 * F27 + 7 *B27+4*C27+D27+0.5*E27</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <f xml:space="preserve"> 0.00001 * F28 + 7 *B28+4*C28+D28+0.5*E28</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <f xml:space="preserve"> 0.00001 * F29 + 7 *B29+4*C29+D29+0.5*E29</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <f xml:space="preserve"> 0.00001 * F30 + 7 *B30+4*C30+D30+0.5*E30</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <f xml:space="preserve"> 0.00001 * F31 + 7 *B31+4*C31+D31+0.5*E31</f>
+        <f t="shared" si="0"/>
         <v>14.716000000000001</v>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <f xml:space="preserve"> 0.00001 * F32 + 7 *B32+4*C32+D32+0.5*E32</f>
+        <f t="shared" si="0"/>
         <v>15.216000000000001</v>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <f xml:space="preserve"> 0.00001 * F33 + 7 *B33+4*C33+D33+0.5*E33</f>
+        <f t="shared" ref="H33:H64" si="1" xml:space="preserve"> 0.00001 * F33 + 7 *B33+4*C33+D33+0.5*E33</f>
         <v>18.607199999999999</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <f xml:space="preserve"> 0.00001 * F34 + 7 *B34+4*C34+D34+0.5*E34</f>
+        <f t="shared" si="1"/>
         <v>23.236000000000001</v>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <f xml:space="preserve"> 0.00001 * F35 + 7 *B35+4*C35+D35+0.5*E35</f>
+        <f t="shared" si="1"/>
         <v>23.236000000000001</v>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <f xml:space="preserve"> 0.00001 * F36 + 7 *B36+4*C36+D36+0.5*E36</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <f xml:space="preserve"> 0.00001 * F37 + 7 *B37+4*C37+D37+0.5*E37</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <f xml:space="preserve"> 0.00001 * F38 + 7 *B38+4*C38+D38+0.5*E38</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <f xml:space="preserve"> 0.00001 * F39 + 7 *B39+4*C39+D39+0.5*E39</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <f xml:space="preserve"> 0.00001 * F40 + 7 *B40+4*C40+D40+0.5*E40</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <f xml:space="preserve"> 0.00001 * F41 + 7 *B41+4*C41+D41+0.5*E41</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <f xml:space="preserve"> 0.00001 * F42 + 7 *B42+4*C42+D42+0.5*E42</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <f xml:space="preserve"> 0.00001 * F43 + 7 *B43+4*C43+D43+0.5*E43</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <f xml:space="preserve"> 0.00001 * F44 + 7 *B44+4*C44+D44+0.5*E44</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <f xml:space="preserve"> 0.00001 * F45 + 7 *B45+4*C45+D45+0.5*E45</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <f xml:space="preserve"> 0.00001 * F46 + 7 *B46+4*C46+D46+0.5*E46</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <f xml:space="preserve"> 0.00001 * F47 + 7 *B47+4*C47+D47+0.5*E47</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <f xml:space="preserve"> 0.00001 * F48 + 7 *B48+4*C48+D48+0.5*E48</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <f xml:space="preserve"> 0.00001 * F49 + 7 *B49+4*C49+D49+0.5*E49</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <f xml:space="preserve"> 0.00001 * F50 + 7 *B50+4*C50+D50+0.5*E50</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <f xml:space="preserve"> 0.00001 * F51 + 7 *B51+4*C51+D51+0.5*E51</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <f xml:space="preserve"> 0.00001 * F52 + 7 *B52+4*C52+D52+0.5*E52</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <f xml:space="preserve"> 0.00001 * F53 + 7 *B53+4*C53+D53+0.5*E53</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <f xml:space="preserve"> 0.00001 * F54 + 7 *B54+4*C54+D54+0.5*E54</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <f xml:space="preserve"> 0.00001 * F55 + 7 *B55+4*C55+D55+0.5*E55</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <f xml:space="preserve"> 0.00001 * F56 + 7 *B56+4*C56+D56+0.5*E56</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <f xml:space="preserve"> 0.00001 * F57 + 7 *B57+4*C57+D57+0.5*E57</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <f xml:space="preserve"> 0.00001 * F58 + 7 *B58+4*C58+D58+0.5*E58</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <f xml:space="preserve"> 0.00001 * F59 + 7 *B59+4*C59+D59+0.5*E59</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <f xml:space="preserve"> 0.00001 * F60 + 7 *B60+4*C60+D60+0.5*E60</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <f xml:space="preserve"> 0.00001 * F61 + 7 *B61+4*C61+D61+0.5*E61</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <f xml:space="preserve"> 0.00001 * F62 + 7 *B62+4*C62+D62+0.5*E62</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <f xml:space="preserve"> 0.00001 * F63 + 7 *B63+4*C63+D63+0.5*E63</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <f xml:space="preserve"> 0.00001 * F64 + 7 *B64+4*C64+D64+0.5*E64</f>
+        <f t="shared" si="1"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <f xml:space="preserve"> 0.00001 * F65 + 7 *B65+4*C65+D65+0.5*E65</f>
+        <f t="shared" ref="H65:H96" si="2" xml:space="preserve"> 0.00001 * F65 + 7 *B65+4*C65+D65+0.5*E65</f>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <f xml:space="preserve"> 0.00001 * F66 + 7 *B66+4*C66+D66+0.5*E66</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <f xml:space="preserve"> 0.00001 * F67 + 7 *B67+4*C67+D67+0.5*E67</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <f xml:space="preserve"> 0.00001 * F68 + 7 *B68+4*C68+D68+0.5*E68</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <f xml:space="preserve"> 0.00001 * F69 + 7 *B69+4*C69+D69+0.5*E69</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <f xml:space="preserve"> 0.00001 * F70 + 7 *B70+4*C70+D70+0.5*E70</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <f xml:space="preserve"> 0.00001 * F71 + 7 *B71+4*C71+D71+0.5*E71</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <f xml:space="preserve"> 0.00001 * F72 + 7 *B72+4*C72+D72+0.5*E72</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <f xml:space="preserve"> 0.00001 * F73 + 7 *B73+4*C73+D73+0.5*E73</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <f xml:space="preserve"> 0.00001 * F74 + 7 *B74+4*C74+D74+0.5*E74</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <f xml:space="preserve"> 0.00001 * F75 + 7 *B75+4*C75+D75+0.5*E75</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <f xml:space="preserve"> 0.00001 * F76 + 7 *B76+4*C76+D76+0.5*E76</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <f xml:space="preserve"> 0.00001 * F77 + 7 *B77+4*C77+D77+0.5*E77</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <f xml:space="preserve"> 0.00001 * F78 + 7 *B78+4*C78+D78+0.5*E78</f>
+        <f t="shared" si="2"/>
         <v>27.236000000000001</v>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <f xml:space="preserve"> 0.00001 * F79 + 7 *B79+4*C79+D79+0.5*E79</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <f xml:space="preserve"> 0.00001 * F80 + 7 *B80+4*C80+D80+0.5*E80</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
         <v>2</v>
       </c>
       <c r="H81">
-        <f xml:space="preserve"> 0.00001 * F81 + 7 *B81+4*C81+D81+0.5*E81</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <f xml:space="preserve"> 0.00001 * F82 + 7 *B82+4*C82+D82+0.5*E82</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <f xml:space="preserve"> 0.00001 * F83 + 7 *B83+4*C83+D83+0.5*E83</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <f xml:space="preserve"> 0.00001 * F84 + 7 *B84+4*C84+D84+0.5*E84</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="H85">
-        <f xml:space="preserve"> 0.00001 * F85 + 7 *B85+4*C85+D85+0.5*E85</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <f xml:space="preserve"> 0.00001 * F86 + 7 *B86+4*C86+D86+0.5*E86</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <f xml:space="preserve"> 0.00001 * F87 + 7 *B87+4*C87+D87+0.5*E87</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <f xml:space="preserve"> 0.00001 * F88 + 7 *B88+4*C88+D88+0.5*E88</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <f xml:space="preserve"> 0.00001 * F89 + 7 *B89+4*C89+D89+0.5*E89</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <f xml:space="preserve"> 0.00001 * F90 + 7 *B90+4*C90+D90+0.5*E90</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="H91">
-        <f xml:space="preserve"> 0.00001 * F91 + 7 *B91+4*C91+D91+0.5*E91</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <f xml:space="preserve"> 0.00001 * F92 + 7 *B92+4*C92+D92+0.5*E92</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <f xml:space="preserve"> 0.00001 * F93 + 7 *B93+4*C93+D93+0.5*E93</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <f xml:space="preserve"> 0.00001 * F94 + 7 *B94+4*C94+D94+0.5*E94</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
         <v>2</v>
       </c>
       <c r="H95">
-        <f xml:space="preserve"> 0.00001 * F95 + 7 *B95+4*C95+D95+0.5*E95</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="H96">
-        <f xml:space="preserve"> 0.00001 * F96 + 7 *B96+4*C96+D96+0.5*E96</f>
+        <f t="shared" si="2"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3358,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <f xml:space="preserve"> 0.00001 * F97 + 7 *B97+4*C97+D97+0.5*E97</f>
+        <f t="shared" ref="H97:H128" si="3" xml:space="preserve"> 0.00001 * F97 + 7 *B97+4*C97+D97+0.5*E97</f>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <f xml:space="preserve"> 0.00001 * F98 + 7 *B98+4*C98+D98+0.5*E98</f>
+        <f t="shared" si="3"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <f xml:space="preserve"> 0.00001 * F99 + 7 *B99+4*C99+D99+0.5*E99</f>
+        <f t="shared" si="3"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
         <v>2</v>
       </c>
       <c r="H100">
-        <f xml:space="preserve"> 0.00001 * F100 + 7 *B100+4*C100+D100+0.5*E100</f>
+        <f t="shared" si="3"/>
         <v>27.736000000000001</v>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <f xml:space="preserve"> 0.00001 * F101 + 7 *B101+4*C101+D101+0.5*E101</f>
+        <f t="shared" si="3"/>
         <v>28.236000000000001</v>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <f xml:space="preserve"> 0.00001 * F102 + 7 *B102+4*C102+D102+0.5*E102</f>
+        <f t="shared" si="3"/>
         <v>28.236000000000001</v>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
         <v>2</v>
       </c>
       <c r="H103">
-        <f xml:space="preserve"> 0.00001 * F103 + 7 *B103+4*C103+D103+0.5*E103</f>
+        <f t="shared" si="3"/>
         <v>28.736000000000001</v>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="H104">
-        <f xml:space="preserve"> 0.00001 * F104 + 7 *B104+4*C104+D104+0.5*E104</f>
+        <f t="shared" si="3"/>
         <v>28.736000000000001</v>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <f xml:space="preserve"> 0.00001 * F105 + 7 *B105+4*C105+D105+0.5*E105</f>
+        <f t="shared" si="3"/>
         <v>28.736000000000001</v>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="H106">
-        <f xml:space="preserve"> 0.00001 * F106 + 7 *B106+4*C106+D106+0.5*E106</f>
+        <f t="shared" si="3"/>
         <v>28.736000000000001</v>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <f xml:space="preserve"> 0.00001 * F107 + 7 *B107+4*C107+D107+0.5*E107</f>
+        <f t="shared" si="3"/>
         <v>28.736000000000001</v>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="H108">
-        <f xml:space="preserve"> 0.00001 * F108 + 7 *B108+4*C108+D108+0.5*E108</f>
+        <f t="shared" si="3"/>
         <v>28.736000000000001</v>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <f xml:space="preserve"> 0.00001 * F109 + 7 *B109+4*C109+D109+0.5*E109</f>
+        <f t="shared" si="3"/>
         <v>34.236000000000004</v>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <f xml:space="preserve"> 0.00001 * F110 + 7 *B110+4*C110+D110+0.5*E110</f>
+        <f t="shared" si="3"/>
         <v>40.457280000000004</v>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <f xml:space="preserve"> 0.00001 * F111 + 7 *B111+4*C111+D111+0.5*E111</f>
+        <f t="shared" si="3"/>
         <v>45.364000000000004</v>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <f xml:space="preserve"> 0.00001 * F112 + 7 *B112+4*C112+D112+0.5*E112</f>
+        <f t="shared" si="3"/>
         <v>45.364000000000004</v>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <f xml:space="preserve"> 0.00001 * F113 + 7 *B113+4*C113+D113+0.5*E113</f>
+        <f t="shared" si="3"/>
         <v>45.364000000000004</v>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <f xml:space="preserve"> 0.00001 * F114 + 7 *B114+4*C114+D114+0.5*E114</f>
+        <f t="shared" si="3"/>
         <v>45.364000000000004</v>
       </c>
     </row>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <f xml:space="preserve"> 0.00001 * F115 + 7 *B115+4*C115+D115+0.5*E115</f>
+        <f t="shared" si="3"/>
         <v>45.364000000000004</v>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <f xml:space="preserve"> 0.00001 * F116 + 7 *B116+4*C116+D116+0.5*E116</f>
+        <f t="shared" si="3"/>
         <v>45.364000000000004</v>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <f xml:space="preserve"> 0.00001 * F117 + 7 *B117+4*C117+D117+0.5*E117</f>
+        <f t="shared" si="3"/>
         <v>46.864000000000004</v>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <f xml:space="preserve"> 0.00001 * F118 + 7 *B118+4*C118+D118+0.5*E118</f>
+        <f t="shared" si="3"/>
         <v>59.888480000000001</v>
       </c>
     </row>
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <f xml:space="preserve"> 0.00001 * F119 + 7 *B119+4*C119+D119+0.5*E119</f>
+        <f t="shared" si="3"/>
         <v>59.888480000000001</v>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <f xml:space="preserve"> 0.00001 * F120 + 7 *B120+4*C120+D120+0.5*E120</f>
+        <f t="shared" si="3"/>
         <v>60.388480000000001</v>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <f xml:space="preserve"> 0.00001 * F121 + 7 *B121+4*C121+D121+0.5*E121</f>
+        <f t="shared" si="3"/>
         <v>60.388480000000001</v>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <f xml:space="preserve"> 0.00001 * F122 + 7 *B122+4*C122+D122+0.5*E122</f>
+        <f t="shared" si="3"/>
         <v>91.444000000000003</v>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="H123">
-        <f xml:space="preserve"> 0.00001 * F123 + 7 *B123+4*C123+D123+0.5*E123</f>
+        <f t="shared" si="3"/>
         <v>92.444000000000003</v>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <f xml:space="preserve"> 0.00001 * F124 + 7 *B124+4*C124+D124+0.5*E124</f>
+        <f t="shared" si="3"/>
         <v>95.444000000000003</v>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <f xml:space="preserve"> 0.00001 * F125 + 7 *B125+4*C125+D125+0.5*E125</f>
+        <f t="shared" si="3"/>
         <v>95.444000000000003</v>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <f xml:space="preserve"> 0.00001 * F126 + 7 *B126+4*C126+D126+0.5*E126</f>
+        <f t="shared" si="3"/>
         <v>95.444000000000003</v>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="H127">
-        <f xml:space="preserve"> 0.00001 * F127 + 7 *B127+4*C127+D127+0.5*E127</f>
+        <f t="shared" si="3"/>
         <v>95.444000000000003</v>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <f xml:space="preserve"> 0.00001 * F128 + 7 *B128+4*C128+D128+0.5*E128</f>
+        <f t="shared" si="3"/>
         <v>95.444000000000003</v>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="H129">
-        <f xml:space="preserve"> 0.00001 * F129 + 7 *B129+4*C129+D129+0.5*E129</f>
+        <f t="shared" ref="H129:H140" si="4" xml:space="preserve"> 0.00001 * F129 + 7 *B129+4*C129+D129+0.5*E129</f>
         <v>95.444000000000003</v>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <f xml:space="preserve"> 0.00001 * F130 + 7 *B130+4*C130+D130+0.5*E130</f>
+        <f t="shared" si="4"/>
         <v>95.444000000000003</v>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
         <v>2</v>
       </c>
       <c r="H131">
-        <f xml:space="preserve"> 0.00001 * F131 + 7 *B131+4*C131+D131+0.5*E131</f>
+        <f t="shared" si="4"/>
         <v>95.944000000000003</v>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <f xml:space="preserve"> 0.00001 * F132 + 7 *B132+4*C132+D132+0.5*E132</f>
+        <f t="shared" si="4"/>
         <v>96.444000000000003</v>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="H133">
-        <f xml:space="preserve"> 0.00001 * F133 + 7 *B133+4*C133+D133+0.5*E133</f>
+        <f t="shared" si="4"/>
         <v>96.444000000000003</v>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="H134">
-        <f xml:space="preserve"> 0.00001 * F134 + 7 *B134+4*C134+D134+0.5*E134</f>
+        <f t="shared" si="4"/>
         <v>96.944000000000003</v>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="H135">
-        <f xml:space="preserve"> 0.00001 * F135 + 7 *B135+4*C135+D135+0.5*E135</f>
+        <f t="shared" si="4"/>
         <v>96.944000000000003</v>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="H136">
-        <f xml:space="preserve"> 0.00001 * F136 + 7 *B136+4*C136+D136+0.5*E136</f>
+        <f t="shared" si="4"/>
         <v>101.9736</v>
       </c>
     </row>
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <f xml:space="preserve"> 0.00001 * F137 + 7 *B137+4*C137+D137+0.5*E137</f>
+        <f t="shared" si="4"/>
         <v>101.9736</v>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="H138">
-        <f xml:space="preserve"> 0.00001 * F138 + 7 *B138+4*C138+D138+0.5*E138</f>
+        <f t="shared" si="4"/>
         <v>102.9736</v>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="H139">
-        <f xml:space="preserve"> 0.00001 * F139 + 7 *B139+4*C139+D139+0.5*E139</f>
+        <f t="shared" si="4"/>
         <v>102.9736</v>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <f xml:space="preserve"> 0.00001 * F140 + 7 *B140+4*C140+D140+0.5*E140</f>
+        <f t="shared" si="4"/>
         <v>102.9736</v>
       </c>
     </row>
